--- a/DataPenelitian.xlsx
+++ b/DataPenelitian.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jeff\Documents\Kode Paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jeff\Documents\GitHub\ATmemga328P-Machine-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A3CFB1-B9F5-4E15-B4BE-F9CB55387191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB3954F-858F-4F85-A8EB-7C864C561CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13710" yWindow="2175" windowWidth="17700" windowHeight="12555" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
@@ -637,7 +637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -1494,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AC7E30-6852-4024-A646-E7033012EB4D}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,11 +1578,11 @@
       <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3">
         <v>3</v>
-      </c>
-      <c r="G3" s="3">
-        <v>20</v>
       </c>
       <c r="H3" s="3">
         <v>901</v>
@@ -1619,11 +1619,11 @@
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3">
         <v>4</v>
-      </c>
-      <c r="G4" s="3">
-        <v>20</v>
       </c>
       <c r="H4" s="3">
         <v>901</v>
@@ -1660,11 +1660,11 @@
       <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3">
         <v>3</v>
-      </c>
-      <c r="G5" s="3">
-        <v>20</v>
       </c>
       <c r="H5" s="3">
         <v>901</v>
@@ -1701,11 +1701,11 @@
       <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3">
         <v>4</v>
-      </c>
-      <c r="G6" s="3">
-        <v>20</v>
       </c>
       <c r="H6" s="3">
         <v>901</v>
@@ -1742,11 +1742,11 @@
       <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
+        <v>20</v>
+      </c>
+      <c r="G7" s="3">
         <v>3</v>
-      </c>
-      <c r="G7" s="3">
-        <v>20</v>
       </c>
       <c r="H7" s="3">
         <v>901</v>
@@ -1783,11 +1783,11 @@
       <c r="E8" s="4">
         <v>1</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3">
         <v>4</v>
-      </c>
-      <c r="G8" s="3">
-        <v>20</v>
       </c>
       <c r="H8" s="3">
         <v>901</v>
@@ -1824,11 +1824,11 @@
       <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
+        <v>20</v>
+      </c>
+      <c r="G9" s="3">
         <v>4</v>
-      </c>
-      <c r="G9" s="3">
-        <v>20</v>
       </c>
       <c r="H9" s="3">
         <v>901</v>
@@ -1865,11 +1865,11 @@
       <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
+        <v>20</v>
+      </c>
+      <c r="G10" s="3">
         <v>3</v>
-      </c>
-      <c r="G10" s="3">
-        <v>20</v>
       </c>
       <c r="H10" s="3">
         <v>901</v>
@@ -1906,11 +1906,11 @@
       <c r="E11" s="4">
         <v>1</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
+        <v>20</v>
+      </c>
+      <c r="G11" s="3">
         <v>4</v>
-      </c>
-      <c r="G11" s="3">
-        <v>20</v>
       </c>
       <c r="H11" s="3">
         <v>901</v>
@@ -1947,11 +1947,11 @@
       <c r="E12" s="4">
         <v>0</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
+        <v>20</v>
+      </c>
+      <c r="G12" s="3">
         <v>3</v>
-      </c>
-      <c r="G12" s="3">
-        <v>20</v>
       </c>
       <c r="H12" s="3">
         <v>901</v>
@@ -1988,11 +1988,11 @@
       <c r="E13" s="4">
         <v>0</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
+        <v>20</v>
+      </c>
+      <c r="G13" s="3">
         <v>4</v>
-      </c>
-      <c r="G13" s="3">
-        <v>20</v>
       </c>
       <c r="H13" s="3">
         <v>901</v>
@@ -2029,11 +2029,11 @@
       <c r="E14" s="4">
         <v>0</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
+        <v>20</v>
+      </c>
+      <c r="G14" s="3">
         <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>20</v>
       </c>
       <c r="H14" s="3">
         <v>901</v>
@@ -2070,11 +2070,11 @@
       <c r="E15" s="4">
         <v>0</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
+        <v>20</v>
+      </c>
+      <c r="G15" s="3">
         <v>3</v>
-      </c>
-      <c r="G15" s="3">
-        <v>20</v>
       </c>
       <c r="H15" s="3">
         <v>901</v>
@@ -2111,11 +2111,11 @@
       <c r="E16" s="4">
         <v>0</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
+        <v>20</v>
+      </c>
+      <c r="G16" s="3">
         <v>3</v>
-      </c>
-      <c r="G16" s="3">
-        <v>20</v>
       </c>
       <c r="H16" s="3">
         <v>901</v>
@@ -2152,11 +2152,11 @@
       <c r="E17" s="4">
         <v>1</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
+        <v>20</v>
+      </c>
+      <c r="G17" s="3">
         <v>3</v>
-      </c>
-      <c r="G17" s="3">
-        <v>20</v>
       </c>
       <c r="H17" s="3">
         <v>901</v>
@@ -2193,11 +2193,11 @@
       <c r="E18" s="4">
         <v>0</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
+        <v>20</v>
+      </c>
+      <c r="G18" s="3">
         <v>4</v>
-      </c>
-      <c r="G18" s="3">
-        <v>20</v>
       </c>
       <c r="H18" s="3">
         <v>901</v>
@@ -2234,11 +2234,11 @@
       <c r="E19" s="4">
         <v>1</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
+        <v>20</v>
+      </c>
+      <c r="G19" s="3">
         <v>4</v>
-      </c>
-      <c r="G19" s="3">
-        <v>20</v>
       </c>
       <c r="H19" s="3">
         <v>901</v>
@@ -2275,11 +2275,11 @@
       <c r="E20" s="4">
         <v>1</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
+        <v>20</v>
+      </c>
+      <c r="G20" s="3">
         <v>3</v>
-      </c>
-      <c r="G20" s="3">
-        <v>20</v>
       </c>
       <c r="H20" s="3">
         <v>901</v>
@@ -2316,11 +2316,11 @@
       <c r="E21" s="4">
         <v>1</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
+        <v>20</v>
+      </c>
+      <c r="G21" s="3">
         <v>5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>20</v>
       </c>
       <c r="H21" s="3">
         <v>901</v>
@@ -2357,11 +2357,11 @@
       <c r="E22" s="4">
         <v>1</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="3">
+        <v>20</v>
+      </c>
+      <c r="G22" s="3">
         <v>4</v>
-      </c>
-      <c r="G22" s="3">
-        <v>20</v>
       </c>
       <c r="H22" s="3">
         <v>901</v>
@@ -2398,11 +2398,11 @@
       <c r="E23" s="4">
         <v>1</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="3">
+        <v>20</v>
+      </c>
+      <c r="G23" s="3">
         <v>4</v>
-      </c>
-      <c r="G23" s="3">
-        <v>20</v>
       </c>
       <c r="H23" s="3">
         <v>901</v>
@@ -2439,11 +2439,11 @@
       <c r="E24" s="4">
         <v>1</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="3">
+        <v>20</v>
+      </c>
+      <c r="G24" s="3">
         <v>4</v>
-      </c>
-      <c r="G24" s="3">
-        <v>20</v>
       </c>
       <c r="H24" s="3">
         <v>901</v>
@@ -2480,11 +2480,11 @@
       <c r="E25" s="4">
         <v>1</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="3">
+        <v>20</v>
+      </c>
+      <c r="G25" s="3">
         <v>5</v>
-      </c>
-      <c r="G25" s="3">
-        <v>20</v>
       </c>
       <c r="H25" s="3">
         <v>901</v>
@@ -2521,11 +2521,11 @@
       <c r="E26" s="4">
         <v>1</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="3">
+        <v>20</v>
+      </c>
+      <c r="G26" s="3">
         <v>4</v>
-      </c>
-      <c r="G26" s="3">
-        <v>20</v>
       </c>
       <c r="H26" s="3">
         <v>901</v>
@@ -2562,11 +2562,11 @@
       <c r="E27" s="4">
         <v>1</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="3">
+        <v>20</v>
+      </c>
+      <c r="G27" s="3">
         <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>20</v>
       </c>
       <c r="H27" s="3">
         <v>901</v>
@@ -2603,11 +2603,11 @@
       <c r="E28" s="4">
         <v>1</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="3">
+        <v>20</v>
+      </c>
+      <c r="G28" s="3">
         <v>4</v>
-      </c>
-      <c r="G28" s="3">
-        <v>20</v>
       </c>
       <c r="H28" s="3">
         <v>901</v>
@@ -2644,11 +2644,11 @@
       <c r="E29" s="4">
         <v>1</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="3">
+        <v>20</v>
+      </c>
+      <c r="G29" s="6">
         <v>4</v>
-      </c>
-      <c r="G29" s="3">
-        <v>20</v>
       </c>
       <c r="H29" s="3">
         <v>901</v>
@@ -2690,11 +2690,11 @@
         <v>0</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="0"/>
+        <f>MIN(G3:G29)</f>
         <v>3</v>
       </c>
       <c r="G30" s="11">
-        <f t="shared" si="0"/>
+        <f>MIN(F3:F29)</f>
         <v>20</v>
       </c>
       <c r="H30" s="11">
@@ -2743,11 +2743,11 @@
         <v>1</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="1"/>
+        <f>MAX(G3:G29)</f>
         <v>5</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="1"/>
+        <f>MAX(F3:F29)</f>
         <v>20</v>
       </c>
       <c r="H31" s="3">
@@ -2796,11 +2796,11 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(G3:G29)</f>
         <v>3.7777777777777777</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(F3:F29)</f>
         <v>20</v>
       </c>
       <c r="H32" s="6">
@@ -2844,7 +2844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BCAE9F-05D6-4567-888B-AD6EC64A6BDA}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
@@ -3737,51 +3737,51 @@
         <v>3</v>
       </c>
       <c r="B23" s="1">
-        <f>MIN(B3:B22)</f>
+        <f t="shared" ref="B23:M23" si="0">MIN(B3:B22)</f>
         <v>0</v>
       </c>
       <c r="C23" s="11">
-        <f>MIN(C3:C22)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="D23" s="11">
-        <f>MIN(D3:D22)</f>
+        <f t="shared" si="0"/>
         <v>1251</v>
       </c>
       <c r="E23" s="11">
-        <f>MIN(E3:E22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <f>MIN(F3:F22)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="G23" s="11">
-        <f>MIN(G3:G22)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H23" s="11">
-        <f>MIN(H3:H22)</f>
+        <f t="shared" si="0"/>
         <v>761</v>
       </c>
       <c r="I23" s="11">
-        <f>MIN(I3:I22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J23" s="1">
-        <f>MIN(J3:J22)</f>
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
       <c r="K23" s="11">
-        <f>MIN(K3:K22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L23" s="11">
-        <f>MIN(L3:L22)</f>
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
       <c r="M23" s="12">
-        <f>MIN(M3:M22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3790,51 +3790,51 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <f>MAX(B3:B22)</f>
+        <f t="shared" ref="B24:M24" si="1">MAX(B3:B22)</f>
         <v>0</v>
       </c>
       <c r="C24" s="3">
-        <f>MAX(C3:C22)</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="D24" s="3">
-        <f>MAX(D3:D22)</f>
+        <f t="shared" si="1"/>
         <v>1251</v>
       </c>
       <c r="E24" s="3">
-        <f>MAX(E3:E22)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F24" s="2">
-        <f>MAX(F3:F22)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="G24" s="3">
-        <f>MAX(G3:G22)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H24" s="3">
-        <f>MAX(H3:H22)</f>
+        <f t="shared" si="1"/>
         <v>761</v>
       </c>
       <c r="I24" s="3">
-        <f>MAX(I3:I22)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J24" s="2">
-        <f>MAX(J3:J22)</f>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="K24" s="3">
-        <f>MAX(K3:K22)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L24" s="3">
-        <f>MAX(L3:L22)</f>
+        <f t="shared" si="1"/>
         <v>1200</v>
       </c>
       <c r="M24" s="4">
-        <f>MAX(M3:M22)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3843,51 +3843,51 @@
         <v>2</v>
       </c>
       <c r="B25" s="5">
-        <f>AVERAGE(B3:B22)</f>
+        <f t="shared" ref="B25:M25" si="2">AVERAGE(B3:B22)</f>
         <v>0</v>
       </c>
       <c r="C25" s="6">
-        <f>AVERAGE(C3:C22)</f>
+        <f t="shared" si="2"/>
         <v>36.049999999999997</v>
       </c>
       <c r="D25" s="6">
-        <f>AVERAGE(D3:D22)</f>
+        <f t="shared" si="2"/>
         <v>1251</v>
       </c>
       <c r="E25" s="6">
-        <f>AVERAGE(E3:E22)</f>
+        <f t="shared" si="2"/>
         <v>0.85</v>
       </c>
       <c r="F25" s="5">
-        <f>AVERAGE(F3:F22)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="G25" s="6">
-        <f>AVERAGE(G3:G22)</f>
+        <f t="shared" si="2"/>
         <v>3.55</v>
       </c>
       <c r="H25" s="6">
-        <f>AVERAGE(H3:H22)</f>
+        <f t="shared" si="2"/>
         <v>761</v>
       </c>
       <c r="I25" s="6">
-        <f>AVERAGE(I3:I22)</f>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="J25" s="5">
-        <f>AVERAGE(J3:J22)</f>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="K25" s="6">
-        <f>AVERAGE(K3:K22)</f>
+        <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="L25" s="6">
-        <f>AVERAGE(L3:L22)</f>
+        <f t="shared" si="2"/>
         <v>1200</v>
       </c>
       <c r="M25" s="7">
-        <f>AVERAGE(M3:M22)</f>
+        <f t="shared" si="2"/>
         <v>0.65</v>
       </c>
     </row>
